--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/化学工业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/化学工业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,553 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3928270.9</v>
+        <v>21115878.364175</v>
       </c>
       <c r="C2" t="n">
-        <v>471243.3</v>
+        <v>11640158.9146981</v>
       </c>
       <c r="D2" t="n">
-        <v>7994920</v>
+        <v>29776681.5731026</v>
       </c>
       <c r="E2" t="n">
-        <v>163668774.8</v>
+        <v>751960360.924463</v>
       </c>
       <c r="F2" t="n">
-        <v>20160948.4760303</v>
+        <v>64283325.0064456</v>
       </c>
       <c r="G2" t="n">
-        <v>9979577.4990946</v>
+        <v>27514104.9287736</v>
       </c>
       <c r="H2" t="n">
-        <v>52203107.8519445</v>
+        <v>180550224.325656</v>
       </c>
       <c r="I2" t="n">
-        <v>215871882.651944</v>
+        <v>932510585.250119</v>
       </c>
       <c r="J2" t="n">
-        <v>81222900</v>
+        <v>382527595.730335</v>
       </c>
       <c r="K2" t="n">
-        <v>12663819.7303249</v>
+        <v>35501980.0519591</v>
       </c>
       <c r="L2" t="n">
-        <v>9398762.146494649</v>
+        <v>53250814.3384776</v>
       </c>
       <c r="M2" t="n">
-        <v>183998</v>
+        <v>351685.078383259</v>
       </c>
       <c r="N2" t="n">
-        <v>2823798</v>
+        <v>15191866.0418412</v>
       </c>
       <c r="O2" t="n">
-        <v>8106910</v>
+        <v>22156960.5429717</v>
       </c>
       <c r="P2" t="n">
-        <v>4872407</v>
+        <v>24699471.2642697</v>
       </c>
       <c r="Q2" t="n">
-        <v>7456845</v>
+        <v>57045134.7438463</v>
       </c>
       <c r="R2" t="n">
-        <v>19396300</v>
+        <v>44094008.2454741</v>
       </c>
       <c r="S2" t="n">
-        <v>8013176</v>
+        <v>9164915.23229539</v>
       </c>
       <c r="T2" t="n">
-        <v>5297665.6</v>
+        <v>30570293.0578509</v>
       </c>
       <c r="U2" t="n">
-        <v>5744500</v>
+        <v>48903865.1209594</v>
       </c>
       <c r="V2" t="n">
-        <v>2156161</v>
+        <v>17671984.4278252</v>
       </c>
       <c r="W2" t="n">
-        <v>2573590</v>
+        <v>14496917.3161314</v>
       </c>
       <c r="X2" t="n">
-        <v>1201500</v>
+        <v>7515706.58245191</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224590</v>
+        <v>15037238.687852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3977154.83185499</v>
+        <v>11880883.6729982</v>
       </c>
       <c r="C3" t="n">
-        <v>2159017.10402938</v>
+        <v>17906760.1455857</v>
       </c>
       <c r="D3" t="n">
-        <v>6630650.22075297</v>
+        <v>44189444.8402238</v>
       </c>
       <c r="E3" t="n">
-        <v>157633500.337474</v>
+        <v>978233273.533004</v>
       </c>
       <c r="F3" t="n">
-        <v>20406170.7072437</v>
+        <v>79805544.8849346</v>
       </c>
       <c r="G3" t="n">
-        <v>10376851.8678775</v>
+        <v>34999849.8221474</v>
       </c>
       <c r="H3" t="n">
-        <v>58092667.8289881</v>
+        <v>232012514.342502</v>
       </c>
       <c r="I3" t="n">
-        <v>215726168.166462</v>
+        <v>1210245787.87551</v>
       </c>
       <c r="J3" t="n">
-        <v>80972315.41829599</v>
+        <v>523624408.031368</v>
       </c>
       <c r="K3" t="n">
-        <v>13351239.5613447</v>
+        <v>38694422.1386398</v>
       </c>
       <c r="L3" t="n">
-        <v>13958405.6925222</v>
+        <v>78512697.4967805</v>
       </c>
       <c r="M3" t="n">
-        <v>119141.616067475</v>
+        <v>1413199.141382</v>
       </c>
       <c r="N3" t="n">
-        <v>4536877.08578724</v>
+        <v>18966370.04417</v>
       </c>
       <c r="O3" t="n">
-        <v>9280771.32959198</v>
+        <v>40397430.0229002</v>
       </c>
       <c r="P3" t="n">
-        <v>5388155.80337524</v>
+        <v>14815161.7163565</v>
       </c>
       <c r="Q3" t="n">
-        <v>7271507.48427576</v>
+        <v>75653161.40666629</v>
       </c>
       <c r="R3" t="n">
-        <v>10315567.5502646</v>
+        <v>51499059.1454638</v>
       </c>
       <c r="S3" t="n">
-        <v>1460687.65153502</v>
+        <v>17379129.0804131</v>
       </c>
       <c r="T3" t="n">
-        <v>7146430.28856765</v>
+        <v>35557969.274129</v>
       </c>
       <c r="U3" t="n">
-        <v>9641999.9257793</v>
+        <v>49738187.4768782</v>
       </c>
       <c r="V3" t="n">
-        <v>3407253.39488019</v>
+        <v>16453399.296762</v>
       </c>
       <c r="W3" t="n">
-        <v>2447272.2932846</v>
+        <v>23104551.1698299</v>
       </c>
       <c r="X3" t="n">
-        <v>1217391.96087016</v>
+        <v>7451888.17102476</v>
       </c>
       <c r="Y3" t="n">
-        <v>1661306.37826104</v>
+        <v>28202270.8968536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7308249.99396185</v>
+        <v>15439870.075422</v>
       </c>
       <c r="C4" t="n">
-        <v>4445116.56427673</v>
+        <v>27000289.6779111</v>
       </c>
       <c r="D4" t="n">
-        <v>15086672.0058173</v>
+        <v>73329469.9818224</v>
       </c>
       <c r="E4" t="n">
-        <v>311190870.486962</v>
+        <v>1285502099.19269</v>
       </c>
       <c r="F4" t="n">
-        <v>26309589.2845808</v>
+        <v>95236394.1075999</v>
       </c>
       <c r="G4" t="n">
-        <v>15272654.1806194</v>
+        <v>43715267.4056281</v>
       </c>
       <c r="H4" t="n">
-        <v>89125822.1450129</v>
+        <v>276552568.086602</v>
       </c>
       <c r="I4" t="n">
-        <v>400316692.631975</v>
+        <v>1562054667.2793</v>
       </c>
       <c r="J4" t="n">
-        <v>154819198.056924</v>
+        <v>651627346.014397</v>
       </c>
       <c r="K4" t="n">
-        <v>18186698.7304392</v>
+        <v>55783964.2683971</v>
       </c>
       <c r="L4" t="n">
-        <v>29356879.9493735</v>
+        <v>81816942.30497649</v>
       </c>
       <c r="M4" t="n">
-        <v>286810.407355126</v>
+        <v>2013987.55403908</v>
       </c>
       <c r="N4" t="n">
-        <v>6480618.37470111</v>
+        <v>36899811.9446665</v>
       </c>
       <c r="O4" t="n">
-        <v>13688904.256059</v>
+        <v>66175142.2687838</v>
       </c>
       <c r="P4" t="n">
-        <v>9364705.3886202</v>
+        <v>22800900.939612</v>
       </c>
       <c r="Q4" t="n">
-        <v>16476680.1086817</v>
+        <v>82317674.5716024</v>
       </c>
       <c r="R4" t="n">
-        <v>24113756.567544</v>
+        <v>63345696.1617289</v>
       </c>
       <c r="S4" t="n">
-        <v>2623794.59325209</v>
+        <v>27335245.4872779</v>
       </c>
       <c r="T4" t="n">
-        <v>15963584.9375067</v>
+        <v>50010578.4546826</v>
       </c>
       <c r="U4" t="n">
-        <v>23128331.6155697</v>
+        <v>46145251.1433424</v>
       </c>
       <c r="V4" t="n">
-        <v>6717233.20431847</v>
+        <v>21260057.8341332</v>
       </c>
       <c r="W4" t="n">
-        <v>3502369.32986748</v>
+        <v>34662674.9223309</v>
       </c>
       <c r="X4" t="n">
-        <v>2532653.50137298</v>
+        <v>10141887.704556</v>
       </c>
       <c r="Y4" t="n">
-        <v>4652191.58113339</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>13092507.4691765</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6703209.88025222</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16674822.7879503</v>
-      </c>
-      <c r="E5" t="n">
-        <v>494052772.127153</v>
-      </c>
-      <c r="F5" t="n">
-        <v>37806573.5626802</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17930339.6479997</v>
-      </c>
-      <c r="H5" t="n">
-        <v>125928153.705218</v>
-      </c>
-      <c r="I5" t="n">
-        <v>619980925.832371</v>
-      </c>
-      <c r="J5" t="n">
-        <v>258179753.172431</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24193076.0031098</v>
-      </c>
-      <c r="L5" t="n">
-        <v>45998164.4914281</v>
-      </c>
-      <c r="M5" t="n">
-        <v>206977.488350863</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7994672.16034593</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13401963.2043958</v>
-      </c>
-      <c r="P5" t="n">
-        <v>16167993.47883</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>40782813.4517365</v>
-      </c>
-      <c r="R5" t="n">
-        <v>30268744.1199554</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5889045.0867358</v>
-      </c>
-      <c r="T5" t="n">
-        <v>17534941.3394572</v>
-      </c>
-      <c r="U5" t="n">
-        <v>34662848.5453338</v>
-      </c>
-      <c r="V5" t="n">
-        <v>10949652.8219213</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8111153.04059895</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4271377.03039963</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9160297.049281759</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>21115878.364175</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11640158.9146981</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29776681.5731026</v>
-      </c>
-      <c r="E6" t="n">
-        <v>751960360.924463</v>
-      </c>
-      <c r="F6" t="n">
-        <v>64283325.0064456</v>
-      </c>
-      <c r="G6" t="n">
-        <v>27514104.9287736</v>
-      </c>
-      <c r="H6" t="n">
-        <v>180550224.325656</v>
-      </c>
-      <c r="I6" t="n">
-        <v>932510585.250119</v>
-      </c>
-      <c r="J6" t="n">
-        <v>382527595.730335</v>
-      </c>
-      <c r="K6" t="n">
-        <v>35501980.0519591</v>
-      </c>
-      <c r="L6" t="n">
-        <v>53250814.3384776</v>
-      </c>
-      <c r="M6" t="n">
-        <v>351685.078383259</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15191866.0418412</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22156960.5429717</v>
-      </c>
-      <c r="P6" t="n">
-        <v>24699471.2642697</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>57045134.7438463</v>
-      </c>
-      <c r="R6" t="n">
-        <v>44094008.2454741</v>
-      </c>
-      <c r="S6" t="n">
-        <v>9164915.23229539</v>
-      </c>
-      <c r="T6" t="n">
-        <v>30570293.0578509</v>
-      </c>
-      <c r="U6" t="n">
-        <v>48903865.1209594</v>
-      </c>
-      <c r="V6" t="n">
-        <v>17671984.4278252</v>
-      </c>
-      <c r="W6" t="n">
-        <v>14496917.3161314</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7515706.58245191</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15037238.687852</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11880883.6729982</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17906760.1455857</v>
-      </c>
-      <c r="D7" t="n">
-        <v>44189444.8402238</v>
-      </c>
-      <c r="E7" t="n">
-        <v>978233273.533004</v>
-      </c>
-      <c r="F7" t="n">
-        <v>79805544.8849346</v>
-      </c>
-      <c r="G7" t="n">
-        <v>34999849.8221474</v>
-      </c>
-      <c r="H7" t="n">
-        <v>232012514.342502</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1210245787.87551</v>
-      </c>
-      <c r="J7" t="n">
-        <v>523624408.031368</v>
-      </c>
-      <c r="K7" t="n">
-        <v>38694422.1386398</v>
-      </c>
-      <c r="L7" t="n">
-        <v>78512697.4967805</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1413199.141382</v>
-      </c>
-      <c r="N7" t="n">
-        <v>18966370.04417</v>
-      </c>
-      <c r="O7" t="n">
-        <v>40397430.0229002</v>
-      </c>
-      <c r="P7" t="n">
-        <v>14815161.7163565</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>75653161.40666629</v>
-      </c>
-      <c r="R7" t="n">
-        <v>51499059.1454638</v>
-      </c>
-      <c r="S7" t="n">
-        <v>17379129.0804131</v>
-      </c>
-      <c r="T7" t="n">
-        <v>35557969.274129</v>
-      </c>
-      <c r="U7" t="n">
-        <v>49738187.4768782</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16453399.296762</v>
-      </c>
-      <c r="W7" t="n">
-        <v>23104551.1698299</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7451888.17102476</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>28202270.8968536</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15439870.075422</v>
-      </c>
-      <c r="C8" t="n">
-        <v>27000289.6779111</v>
-      </c>
-      <c r="D8" t="n">
-        <v>73329469.9818224</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1285502099.19269</v>
-      </c>
-      <c r="F8" t="n">
-        <v>95236394.1075999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>43715267.4056281</v>
-      </c>
-      <c r="H8" t="n">
-        <v>276552568.086602</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1562054667.2793</v>
-      </c>
-      <c r="J8" t="n">
-        <v>651627346.014397</v>
-      </c>
-      <c r="K8" t="n">
-        <v>55783964.2683971</v>
-      </c>
-      <c r="L8" t="n">
-        <v>81816942.30497649</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2013987.55403908</v>
-      </c>
-      <c r="N8" t="n">
-        <v>36899811.9446665</v>
-      </c>
-      <c r="O8" t="n">
-        <v>66175142.2687838</v>
-      </c>
-      <c r="P8" t="n">
-        <v>22800900.939612</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>82317674.5716024</v>
-      </c>
-      <c r="R8" t="n">
-        <v>63345696.1617289</v>
-      </c>
-      <c r="S8" t="n">
-        <v>27335245.4872779</v>
-      </c>
-      <c r="T8" t="n">
-        <v>50010578.4546826</v>
-      </c>
-      <c r="U8" t="n">
-        <v>46145251.1433424</v>
-      </c>
-      <c r="V8" t="n">
-        <v>21260057.8341332</v>
-      </c>
-      <c r="W8" t="n">
-        <v>34662674.9223309</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10141887.704556</v>
-      </c>
-      <c r="Y8" t="n">
         <v>54996214.4563854</v>
       </c>
     </row>
